--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1082.936689894638</v>
+        <v>1186.451762585868</v>
       </c>
       <c r="AB2" t="n">
-        <v>1481.721754908755</v>
+        <v>1623.355644127598</v>
       </c>
       <c r="AC2" t="n">
-        <v>1340.308310229808</v>
+        <v>1468.424859846015</v>
       </c>
       <c r="AD2" t="n">
-        <v>1082936.689894638</v>
+        <v>1186451.762585868</v>
       </c>
       <c r="AE2" t="n">
-        <v>1481721.754908755</v>
+        <v>1623355.644127598</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.336441404999812e-06</v>
+        <v>1.926700015276684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.74088541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1340308.310229808</v>
+        <v>1468424.859846015</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>513.4444835926643</v>
+        <v>573.792806815028</v>
       </c>
       <c r="AB3" t="n">
-        <v>702.5173940234324</v>
+        <v>785.0886322363898</v>
       </c>
       <c r="AC3" t="n">
-        <v>635.4701199271905</v>
+        <v>710.1608750545639</v>
       </c>
       <c r="AD3" t="n">
-        <v>513444.4835926642</v>
+        <v>573792.8068150281</v>
       </c>
       <c r="AE3" t="n">
-        <v>702517.3940234324</v>
+        <v>785088.6322363898</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.11100601977405e-06</v>
+        <v>3.043362256909727e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.39778645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>635470.1199271905</v>
+        <v>710160.8750545639</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>400.030142612118</v>
+        <v>460.378376325931</v>
       </c>
       <c r="AB4" t="n">
-        <v>547.3388892062537</v>
+        <v>629.9100049496627</v>
       </c>
       <c r="AC4" t="n">
-        <v>495.1016338153638</v>
+        <v>569.7922781615107</v>
       </c>
       <c r="AD4" t="n">
-        <v>400030.142612118</v>
+        <v>460378.3763259309</v>
       </c>
       <c r="AE4" t="n">
-        <v>547338.8892062537</v>
+        <v>629910.0049496627</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.401561116347992e-06</v>
+        <v>3.462245200010261e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.65625</v>
       </c>
       <c r="AH4" t="n">
-        <v>495101.6338153638</v>
+        <v>569792.2781615107</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>395.8526120269929</v>
+        <v>456.2008457408056</v>
       </c>
       <c r="AB5" t="n">
-        <v>541.623007560043</v>
+        <v>624.194123303452</v>
       </c>
       <c r="AC5" t="n">
-        <v>489.9312678911772</v>
+        <v>564.6219122373242</v>
       </c>
       <c r="AD5" t="n">
-        <v>395852.6120269928</v>
+        <v>456200.8457408056</v>
       </c>
       <c r="AE5" t="n">
-        <v>541623.007560043</v>
+        <v>624194.123303452</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.419207296699045e-06</v>
+        <v>3.487685070269258e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.56184895833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>489931.2678911772</v>
+        <v>564621.9122373242</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>758.0104849874623</v>
+        <v>833.7673864910407</v>
       </c>
       <c r="AB2" t="n">
-        <v>1037.143386622293</v>
+        <v>1140.797321418105</v>
       </c>
       <c r="AC2" t="n">
-        <v>938.1598774429457</v>
+        <v>1031.921226181057</v>
       </c>
       <c r="AD2" t="n">
-        <v>758010.4849874623</v>
+        <v>833767.3864910407</v>
       </c>
       <c r="AE2" t="n">
-        <v>1037143.386622293</v>
+        <v>1140797.321418105</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.648623967442511e-06</v>
+        <v>2.413523468828515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.06901041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>938159.8774429457</v>
+        <v>1031921.226181057</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>401.4475610365237</v>
+        <v>451.9521918750929</v>
       </c>
       <c r="AB3" t="n">
-        <v>549.2782636266132</v>
+        <v>618.3809276470041</v>
       </c>
       <c r="AC3" t="n">
-        <v>496.8559170629732</v>
+        <v>559.3635198154562</v>
       </c>
       <c r="AD3" t="n">
-        <v>401447.5610365237</v>
+        <v>451952.1918750929</v>
       </c>
       <c r="AE3" t="n">
-        <v>549278.2636266132</v>
+        <v>618380.9276470041</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.384994529735657e-06</v>
+        <v>3.491542270536207e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.18359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>496855.9170629732</v>
+        <v>559363.5198154562</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>375.9025729502089</v>
+        <v>434.7391969806585</v>
       </c>
       <c r="AB4" t="n">
-        <v>514.32648396158</v>
+        <v>594.8293486486989</v>
       </c>
       <c r="AC4" t="n">
-        <v>465.2398861940401</v>
+        <v>538.0596704619004</v>
       </c>
       <c r="AD4" t="n">
-        <v>375902.5729502089</v>
+        <v>434739.1969806585</v>
       </c>
       <c r="AE4" t="n">
-        <v>514326.4839615801</v>
+        <v>594829.3486486989</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.45221828516011e-06</v>
+        <v>3.589955319590319e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.822265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>465239.8861940401</v>
+        <v>538059.6704619004</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>356.826403397868</v>
+        <v>418.8793724172152</v>
       </c>
       <c r="AB2" t="n">
-        <v>488.2256271988622</v>
+        <v>573.1292369949173</v>
       </c>
       <c r="AC2" t="n">
-        <v>441.6300585679736</v>
+        <v>518.4305870080577</v>
       </c>
       <c r="AD2" t="n">
-        <v>356826.403397868</v>
+        <v>418879.3724172152</v>
       </c>
       <c r="AE2" t="n">
-        <v>488225.6271988623</v>
+        <v>573129.2369949173</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.397902535630723e-06</v>
+        <v>3.709851202720769e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.62890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>441630.0585679736</v>
+        <v>518430.5870080577</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>407.2750773340107</v>
+        <v>471.3614605733957</v>
       </c>
       <c r="AB2" t="n">
-        <v>557.2517285167091</v>
+        <v>644.937545356524</v>
       </c>
       <c r="AC2" t="n">
-        <v>504.0684056547867</v>
+        <v>583.3856112032265</v>
       </c>
       <c r="AD2" t="n">
-        <v>407275.0773340107</v>
+        <v>471361.4605733957</v>
       </c>
       <c r="AE2" t="n">
-        <v>557251.7285167092</v>
+        <v>644937.5453565239</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.289873039298329e-06</v>
+        <v>3.460671312783629e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.658203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>504068.4056547867</v>
+        <v>583385.6112032265</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>356.9262475384467</v>
+        <v>413.0765061206588</v>
       </c>
       <c r="AB3" t="n">
-        <v>488.3622383568148</v>
+        <v>565.1894993235759</v>
       </c>
       <c r="AC3" t="n">
-        <v>441.7536317487461</v>
+        <v>511.2486067565773</v>
       </c>
       <c r="AD3" t="n">
-        <v>356926.2475384467</v>
+        <v>413076.5061206588</v>
       </c>
       <c r="AE3" t="n">
-        <v>488362.2383568148</v>
+        <v>565189.4993235759</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.462987399827029e-06</v>
+        <v>3.722298001700902e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.62630208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>441753.6317487461</v>
+        <v>511248.6067565773</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>366.9056471461067</v>
+        <v>434.7642701712339</v>
       </c>
       <c r="AB2" t="n">
-        <v>502.0164931600539</v>
+        <v>594.8636548941952</v>
       </c>
       <c r="AC2" t="n">
-        <v>454.1047436374309</v>
+        <v>538.0907025674758</v>
       </c>
       <c r="AD2" t="n">
-        <v>366905.6471461068</v>
+        <v>434764.2701712339</v>
       </c>
       <c r="AE2" t="n">
-        <v>502016.4931600539</v>
+        <v>594863.6548941951</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.279315687103894e-06</v>
+        <v>3.60243106966704e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.986328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>454104.7436374309</v>
+        <v>538090.7025674757</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>821.5772364791658</v>
+        <v>914.6225639468662</v>
       </c>
       <c r="AB2" t="n">
-        <v>1124.118220380395</v>
+        <v>1251.426942291843</v>
       </c>
       <c r="AC2" t="n">
-        <v>1016.83395513712</v>
+        <v>1131.992511308254</v>
       </c>
       <c r="AD2" t="n">
-        <v>821577.2364791657</v>
+        <v>914622.5639468662</v>
       </c>
       <c r="AE2" t="n">
-        <v>1124118.220380395</v>
+        <v>1251426.942291843</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.566620297988191e-06</v>
+        <v>2.283954252362703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.88932291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1016833.95513712</v>
+        <v>1131992.511308254</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>425.6453954346707</v>
+        <v>484.7940818011608</v>
       </c>
       <c r="AB3" t="n">
-        <v>582.3868081832686</v>
+        <v>663.3166503257767</v>
       </c>
       <c r="AC3" t="n">
-        <v>526.8046285952757</v>
+        <v>600.0106401894495</v>
       </c>
       <c r="AD3" t="n">
-        <v>425645.3954346707</v>
+        <v>484794.0818011608</v>
       </c>
       <c r="AE3" t="n">
-        <v>582386.8081832686</v>
+        <v>663316.6503257767</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.315328306228163e-06</v>
+        <v>3.375485391971737e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.45703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>526804.6285952757</v>
+        <v>600010.6401894495</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>379.700596486819</v>
+        <v>438.9345341993296</v>
       </c>
       <c r="AB4" t="n">
-        <v>519.5231073213426</v>
+        <v>600.5695941165001</v>
       </c>
       <c r="AC4" t="n">
-        <v>469.9405511138537</v>
+        <v>543.25207495874</v>
       </c>
       <c r="AD4" t="n">
-        <v>379700.596486819</v>
+        <v>438934.5341993296</v>
       </c>
       <c r="AE4" t="n">
-        <v>519523.1073213427</v>
+        <v>600569.5941165001</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.446940874795021e-06</v>
+        <v>3.567361551133387e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>469940.5511138537</v>
+        <v>543252.0749587399</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.1124965127161</v>
+        <v>455.8601621415179</v>
       </c>
       <c r="AB2" t="n">
-        <v>532.4008841604993</v>
+        <v>623.7279849730072</v>
       </c>
       <c r="AC2" t="n">
-        <v>481.5892910055545</v>
+        <v>564.2002614949076</v>
       </c>
       <c r="AD2" t="n">
-        <v>389112.4965127161</v>
+        <v>455860.162141518</v>
       </c>
       <c r="AE2" t="n">
-        <v>532400.8841604993</v>
+        <v>623727.9849730072</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.169489010375083e-06</v>
+        <v>3.476031002551805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>481589.2910055545</v>
+        <v>564200.2614949077</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>562.4137726463493</v>
+        <v>636.4273471895339</v>
       </c>
       <c r="AB2" t="n">
-        <v>769.519335679246</v>
+        <v>870.7879736176901</v>
       </c>
       <c r="AC2" t="n">
-        <v>696.0774903091889</v>
+        <v>787.6811915742139</v>
       </c>
       <c r="AD2" t="n">
-        <v>562413.7726463494</v>
+        <v>636427.3471895339</v>
       </c>
       <c r="AE2" t="n">
-        <v>769519.335679246</v>
+        <v>870787.9736176901</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.937027560901708e-06</v>
+        <v>2.876182196457197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.72200520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>696077.4903091888</v>
+        <v>787681.1915742139</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>368.9848741648279</v>
+        <v>418.3842406052165</v>
       </c>
       <c r="AB3" t="n">
-        <v>504.8613832960904</v>
+        <v>572.4517758060667</v>
       </c>
       <c r="AC3" t="n">
-        <v>456.6781214517126</v>
+        <v>517.8177817642484</v>
       </c>
       <c r="AD3" t="n">
-        <v>368984.8741648279</v>
+        <v>418384.2406052165</v>
       </c>
       <c r="AE3" t="n">
-        <v>504861.3832960904</v>
+        <v>572451.7758060667</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.47012063276148e-06</v>
+        <v>3.667741817645032e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.115234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>456678.1214517126</v>
+        <v>517817.7817642484</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>687.3108530200261</v>
+        <v>762.4521567688258</v>
       </c>
       <c r="AB2" t="n">
-        <v>940.4090311168154</v>
+        <v>1043.220677906283</v>
       </c>
       <c r="AC2" t="n">
-        <v>850.6577130593905</v>
+        <v>943.6571605763245</v>
       </c>
       <c r="AD2" t="n">
-        <v>687310.8530200261</v>
+        <v>762452.1567688258</v>
       </c>
       <c r="AE2" t="n">
-        <v>940409.0311168154</v>
+        <v>1043220.677906283</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.740628327004117e-06</v>
+        <v>2.55949383242482e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.23567708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>850657.7130593905</v>
+        <v>943657.1605763244</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>382.7104513695002</v>
+        <v>432.8615776079315</v>
       </c>
       <c r="AB3" t="n">
-        <v>523.6413235572533</v>
+        <v>592.2603069882132</v>
       </c>
       <c r="AC3" t="n">
-        <v>473.6657305721616</v>
+        <v>535.735814531819</v>
       </c>
       <c r="AD3" t="n">
-        <v>382710.4513695002</v>
+        <v>432861.5776079315</v>
       </c>
       <c r="AE3" t="n">
-        <v>523641.3235572532</v>
+        <v>592260.3069882132</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.441384308752862e-06</v>
+        <v>3.589915195501067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.00130208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>473665.7305721616</v>
+        <v>535735.814531819</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>370.805403661747</v>
+        <v>429.2296056587023</v>
       </c>
       <c r="AB4" t="n">
-        <v>507.3523120698681</v>
+        <v>587.2908827359839</v>
       </c>
       <c r="AC4" t="n">
-        <v>458.9313194793613</v>
+        <v>531.2406651555917</v>
       </c>
       <c r="AD4" t="n">
-        <v>370805.403661747</v>
+        <v>429229.6056587023</v>
       </c>
       <c r="AE4" t="n">
-        <v>507352.3120698681</v>
+        <v>587290.8827359839</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.460299942599983e-06</v>
+        <v>3.61772954702977e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.900390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>458931.3194793613</v>
+        <v>531240.6651555917</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>989.2054886246831</v>
+        <v>1083.607435916304</v>
       </c>
       <c r="AB2" t="n">
-        <v>1353.474590202446</v>
+        <v>1482.639499206825</v>
       </c>
       <c r="AC2" t="n">
-        <v>1224.300874927042</v>
+        <v>1341.138466300132</v>
       </c>
       <c r="AD2" t="n">
-        <v>989205.4886246831</v>
+        <v>1083607.435916304</v>
       </c>
       <c r="AE2" t="n">
-        <v>1353474.590202446</v>
+        <v>1482639.499206825</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.408674478417081e-06</v>
+        <v>2.038031506215115e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.748046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1224300.874927042</v>
+        <v>1341138.466300132</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.1612380879953</v>
+        <v>545.149953200279</v>
       </c>
       <c r="AB3" t="n">
-        <v>663.8190097552159</v>
+        <v>745.8982162871715</v>
       </c>
       <c r="AC3" t="n">
-        <v>600.4650551400091</v>
+        <v>674.7107373994448</v>
       </c>
       <c r="AD3" t="n">
-        <v>485161.2380879953</v>
+        <v>545149.953200279</v>
       </c>
       <c r="AE3" t="n">
-        <v>663819.009755216</v>
+        <v>745898.2162871715</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.179455075573407e-06</v>
+        <v>3.153175682852061e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.05598958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>600465.0551400091</v>
+        <v>674710.7373994448</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>389.6381354352799</v>
+        <v>449.6267610390125</v>
       </c>
       <c r="AB4" t="n">
-        <v>533.1200865239038</v>
+        <v>615.1991705863109</v>
       </c>
       <c r="AC4" t="n">
-        <v>482.2398537048024</v>
+        <v>556.4854251830114</v>
       </c>
       <c r="AD4" t="n">
-        <v>389638.1354352799</v>
+        <v>449626.7610390125</v>
       </c>
       <c r="AE4" t="n">
-        <v>533120.0865239038</v>
+        <v>615199.1705863109</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.428758836485143e-06</v>
+        <v>3.513861509947454e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.61393229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>482239.8537048025</v>
+        <v>556485.4251830115</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>391.5970238775041</v>
+        <v>451.5856494812367</v>
       </c>
       <c r="AB5" t="n">
-        <v>535.8003241106137</v>
+        <v>617.8794081730209</v>
       </c>
       <c r="AC5" t="n">
-        <v>484.6642931779739</v>
+        <v>558.9098646561829</v>
       </c>
       <c r="AD5" t="n">
-        <v>391597.023877504</v>
+        <v>451585.6494812367</v>
       </c>
       <c r="AE5" t="n">
-        <v>535800.3241106137</v>
+        <v>617879.4081730209</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.426217801549462e-06</v>
+        <v>3.510185210464035e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.626953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>484664.2931779739</v>
+        <v>558909.8646561829</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>458.3061135694744</v>
+        <v>522.9019952344736</v>
       </c>
       <c r="AB2" t="n">
-        <v>627.0746436244983</v>
+        <v>715.4575786877227</v>
       </c>
       <c r="AC2" t="n">
-        <v>567.2275197417654</v>
+        <v>647.1753115287841</v>
       </c>
       <c r="AD2" t="n">
-        <v>458306.1135694744</v>
+        <v>522901.9952344736</v>
       </c>
       <c r="AE2" t="n">
-        <v>627074.6436244983</v>
+        <v>715457.5786877227</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.164897153330958e-06</v>
+        <v>3.250992746124862e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.30924479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>567227.5197417653</v>
+        <v>647175.3115287841</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>360.7015163533628</v>
+        <v>417.2015887851632</v>
       </c>
       <c r="AB3" t="n">
-        <v>493.5277277024884</v>
+        <v>570.8336194109538</v>
       </c>
       <c r="AC3" t="n">
-        <v>446.4261340410783</v>
+        <v>516.3540599443884</v>
       </c>
       <c r="AD3" t="n">
-        <v>360701.5163533628</v>
+        <v>417201.5887851631</v>
       </c>
       <c r="AE3" t="n">
-        <v>493527.7277024884</v>
+        <v>570833.6194109538</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.467593820633452e-06</v>
+        <v>3.705547674132632e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.43098958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>446426.1340410783</v>
+        <v>516354.0599443883</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>359.2227512251076</v>
+        <v>414.1448438236501</v>
       </c>
       <c r="AB2" t="n">
-        <v>491.5044160154965</v>
+        <v>566.6512461005416</v>
       </c>
       <c r="AC2" t="n">
-        <v>444.5959243817571</v>
+        <v>512.570846472724</v>
       </c>
       <c r="AD2" t="n">
-        <v>359222.7512251076</v>
+        <v>414144.8438236502</v>
       </c>
       <c r="AE2" t="n">
-        <v>491504.4160154965</v>
+        <v>566651.2461005416</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.425115715283815e-06</v>
+        <v>3.719513343978534e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.23502604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>444595.9243817572</v>
+        <v>512570.846472724</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>360.2780799809686</v>
+        <v>415.2001725795111</v>
       </c>
       <c r="AB3" t="n">
-        <v>492.9483633770843</v>
+        <v>568.0951934621294</v>
       </c>
       <c r="AC3" t="n">
-        <v>445.9020634337479</v>
+        <v>513.8769855247147</v>
       </c>
       <c r="AD3" t="n">
-        <v>360278.0799809686</v>
+        <v>415200.1725795111</v>
       </c>
       <c r="AE3" t="n">
-        <v>492948.3633770843</v>
+        <v>568095.1934621293</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.428827735315081e-06</v>
+        <v>3.725206642633272e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.21549479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>445902.0634337479</v>
+        <v>513876.9855247147</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.1066509272727</v>
+        <v>417.7845610664636</v>
       </c>
       <c r="AB2" t="n">
-        <v>498.1867830504469</v>
+        <v>571.631267805151</v>
       </c>
       <c r="AC2" t="n">
-        <v>450.6405356856529</v>
+        <v>517.0755818953497</v>
       </c>
       <c r="AD2" t="n">
-        <v>364106.6509272726</v>
+        <v>417784.5610664636</v>
       </c>
       <c r="AE2" t="n">
-        <v>498186.7830504469</v>
+        <v>571631.2678051509</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.353428322818686e-06</v>
+        <v>3.677185332170231e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.17578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>450640.5356856529</v>
+        <v>517075.5818953498</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>419.9390456097457</v>
+        <v>492.6860150008005</v>
       </c>
       <c r="AB2" t="n">
-        <v>574.5791286064194</v>
+        <v>674.114741497044</v>
       </c>
       <c r="AC2" t="n">
-        <v>519.7421029990938</v>
+        <v>609.7781766945473</v>
       </c>
       <c r="AD2" t="n">
-        <v>419939.0456097457</v>
+        <v>492686.0150008005</v>
       </c>
       <c r="AE2" t="n">
-        <v>574579.1286064194</v>
+        <v>674114.741497044</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.987220794553526e-06</v>
+        <v>3.238526300075205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.29036458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>519742.1029990938</v>
+        <v>609778.1766945473</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>622.2543030333517</v>
+        <v>696.7584715857502</v>
       </c>
       <c r="AB2" t="n">
-        <v>851.3957893326229</v>
+        <v>953.3356796379538</v>
       </c>
       <c r="AC2" t="n">
-        <v>770.139770140212</v>
+        <v>862.3506603883368</v>
       </c>
       <c r="AD2" t="n">
-        <v>622254.3030333517</v>
+        <v>696758.4715857501</v>
       </c>
       <c r="AE2" t="n">
-        <v>851395.7893326229</v>
+        <v>953335.6796379539</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.836786108791345e-06</v>
+        <v>2.713632539593754e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.451171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>770139.770140212</v>
+        <v>862350.6603883367</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>373.483904524201</v>
+        <v>423.2671678680791</v>
       </c>
       <c r="AB3" t="n">
-        <v>511.0171551169958</v>
+        <v>579.1328123066628</v>
       </c>
       <c r="AC3" t="n">
-        <v>462.2463950497107</v>
+        <v>523.8611895181211</v>
       </c>
       <c r="AD3" t="n">
-        <v>373483.9045242009</v>
+        <v>423267.1678680792</v>
       </c>
       <c r="AE3" t="n">
-        <v>511017.1551169958</v>
+        <v>579132.8123066628</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.465559393406011e-06</v>
+        <v>3.6425701208347e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.00130208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>462246.3950497107</v>
+        <v>523861.1895181212</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>366.1290380692863</v>
+        <v>424.1240666892631</v>
       </c>
       <c r="AB4" t="n">
-        <v>500.9539023595739</v>
+        <v>580.3052590775145</v>
       </c>
       <c r="AC4" t="n">
-        <v>453.1435650115931</v>
+        <v>524.9217396147023</v>
       </c>
       <c r="AD4" t="n">
-        <v>366129.0380692863</v>
+        <v>424124.0666892631</v>
       </c>
       <c r="AE4" t="n">
-        <v>500953.9023595739</v>
+        <v>580305.2590775145</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.466248729818274e-06</v>
+        <v>3.643588533218206e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.998046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>453143.5650115931</v>
+        <v>524921.7396147023</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>902.7254640778392</v>
+        <v>996.4589344710408</v>
       </c>
       <c r="AB2" t="n">
-        <v>1235.148805388037</v>
+        <v>1363.399074808879</v>
       </c>
       <c r="AC2" t="n">
-        <v>1117.267936944038</v>
+        <v>1233.278180651739</v>
       </c>
       <c r="AD2" t="n">
-        <v>902725.4640778392</v>
+        <v>996458.9344710408</v>
       </c>
       <c r="AE2" t="n">
-        <v>1235148.805388037</v>
+        <v>1363399.074808879</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.484920319179156e-06</v>
+        <v>2.15635527818962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.80078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1117267.936944038</v>
+        <v>1233278.180651739</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>450.4359413033313</v>
+        <v>510.1388211882779</v>
       </c>
       <c r="AB3" t="n">
-        <v>616.3063267224657</v>
+        <v>697.9944408862183</v>
       </c>
       <c r="AC3" t="n">
-        <v>557.486915891435</v>
+        <v>631.3788310893874</v>
       </c>
       <c r="AD3" t="n">
-        <v>450435.9413033313</v>
+        <v>510138.8211882779</v>
       </c>
       <c r="AE3" t="n">
-        <v>616306.3267224657</v>
+        <v>697994.4408862183</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.2471186834204e-06</v>
+        <v>3.26319612650372e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.74674479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>557486.915891435</v>
+        <v>631378.8310893874</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>385.3309160650431</v>
+        <v>444.9484550954179</v>
       </c>
       <c r="AB4" t="n">
-        <v>527.2267589604382</v>
+        <v>608.798106001993</v>
       </c>
       <c r="AC4" t="n">
-        <v>476.9089770526568</v>
+        <v>550.6952692186704</v>
       </c>
       <c r="AD4" t="n">
-        <v>385330.9160650431</v>
+        <v>444948.4550954179</v>
       </c>
       <c r="AE4" t="n">
-        <v>527226.7589604382</v>
+        <v>608798.1060019931</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.434916313255238e-06</v>
+        <v>3.535910025758401e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.685546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>476908.9770526568</v>
+        <v>550695.2692186704</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>386.2783577644473</v>
+        <v>445.8958967948223</v>
       </c>
       <c r="AB5" t="n">
-        <v>528.523090491741</v>
+        <v>610.0944375332958</v>
       </c>
       <c r="AC5" t="n">
-        <v>478.0815885220248</v>
+        <v>551.8678806880383</v>
       </c>
       <c r="AD5" t="n">
-        <v>386278.3577644473</v>
+        <v>445895.8967948223</v>
       </c>
       <c r="AE5" t="n">
-        <v>528523.090491741</v>
+        <v>610094.4375332958</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.435770370187281e-06</v>
+        <v>3.537150260772698e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.68229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>478081.5885220248</v>
+        <v>551867.8806880383</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>489.6322236128157</v>
+        <v>581.965173517067</v>
       </c>
       <c r="AB2" t="n">
-        <v>669.9364093962356</v>
+        <v>796.2704248974926</v>
       </c>
       <c r="AC2" t="n">
-        <v>605.9986187451142</v>
+        <v>720.2754931178356</v>
       </c>
       <c r="AD2" t="n">
-        <v>489632.2236128157</v>
+        <v>581965.173517067</v>
       </c>
       <c r="AE2" t="n">
-        <v>669936.4093962356</v>
+        <v>796270.4248974926</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.6618492764724e-06</v>
+        <v>2.770203732491985e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.88346354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>605998.6187451142</v>
+        <v>720275.4931178356</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>371.8039164066122</v>
+        <v>427.3164518913028</v>
       </c>
       <c r="AB2" t="n">
-        <v>508.7185212586659</v>
+        <v>584.6732213490405</v>
       </c>
       <c r="AC2" t="n">
-        <v>460.1671395806671</v>
+        <v>528.8728296975073</v>
       </c>
       <c r="AD2" t="n">
-        <v>371803.9164066123</v>
+        <v>427316.4518913028</v>
       </c>
       <c r="AE2" t="n">
-        <v>508718.5212586659</v>
+        <v>584673.2213490405</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.402831634877046e-06</v>
+        <v>3.656885376002097e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.15690104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>460167.1395806671</v>
+        <v>528872.8296975073</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>354.1997981450313</v>
+        <v>417.569444242415</v>
       </c>
       <c r="AB3" t="n">
-        <v>484.6317900142855</v>
+        <v>571.3369354762032</v>
       </c>
       <c r="AC3" t="n">
-        <v>438.3792121603107</v>
+        <v>516.8093402307788</v>
       </c>
       <c r="AD3" t="n">
-        <v>354199.7981450313</v>
+        <v>417569.444242415</v>
       </c>
       <c r="AE3" t="n">
-        <v>484631.7900142855</v>
+        <v>571336.9354762032</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.449234890319846e-06</v>
+        <v>3.727506797729944e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.88997395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>438379.2121603107</v>
+        <v>516809.3402307788</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>513.1231750755758</v>
+        <v>578.3676929538047</v>
       </c>
       <c r="AB2" t="n">
-        <v>702.0777655352207</v>
+        <v>791.348193281196</v>
       </c>
       <c r="AC2" t="n">
-        <v>635.0724489648712</v>
+        <v>715.8230323786029</v>
       </c>
       <c r="AD2" t="n">
-        <v>513123.1750755758</v>
+        <v>578367.6929538047</v>
       </c>
       <c r="AE2" t="n">
-        <v>702077.7655352207</v>
+        <v>791348.1932811961</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.046661591119415e-06</v>
+        <v>3.055482976424931e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.00260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>635072.4489648712</v>
+        <v>715823.0323786029</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>364.3985279730819</v>
+        <v>421.3914838437079</v>
       </c>
       <c r="AB3" t="n">
-        <v>498.5861421012297</v>
+        <v>576.5664186751791</v>
       </c>
       <c r="AC3" t="n">
-        <v>451.0017804691329</v>
+        <v>521.5397288928704</v>
       </c>
       <c r="AD3" t="n">
-        <v>364398.5279730819</v>
+        <v>421391.4838437079</v>
       </c>
       <c r="AE3" t="n">
-        <v>498586.1421012296</v>
+        <v>576566.4186751791</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.47330097884539e-06</v>
+        <v>3.692417480851761e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.2421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>451001.7804691329</v>
+        <v>521539.7288928703</v>
       </c>
     </row>
   </sheetData>
